--- a/500all/speech_level/speeches_CHRG-114hhrg25263.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25263.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412672</t>
   </si>
   <si>
-    <t>Daniel M. Donovan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, ladies and gentlemen, for attending today. I just wanted to warn that at 10 o'clock the hospital has some type of drill that is going to go on, so you are going to hear alarms. It has nothing to do with the hearing, and it doesn't mean it is over, to our witnesses. Thank you.    The Committee on Homeland Security's Subcommittee on Emergency Preparedness, Response, and Communications will come to order.    The subcommittee is meeting today to examine efforts to ensure community resilience. I appreciate the effort taken on behalf of all those involved to have this important field hearing take place. This is an official Congressional hearing, as opposed to a town hall meeting and, as such, we must abide by certain rules of the Committee on Homeland Security and the House of Representatives. I kindly wish to remind our guests today that demonstrations from the audience, including applause and verbal outbursts, as well as any use of signs or placards, are a violation of the rules of the House of Representatives. It is important that we respect the decorum and the rules of this committee.    I now recognize myself for an opening statement.    Thank you all for taking the time to appear today before the Subcommittee on Emergency Preparedness, Response, and Communications, and I thank Staten Island University Hospital for hosting us in this beautiful facility.    Nearly 4 years ago, a perfect confluence of circumstances brought Superstorm Sandy and its devastating storm surge to our doorstep. Dozens of New Yorkers lost their lives, thousands of homes were damaged or destroyed, and billions of dollars have been spent in the aftermath.    Oftentimes after a disaster like this, the public just wants to see action--something, anything--being done to fix it. Under the gun, Congress drafts legislation to allocate massive sums to Federal agencies and to impacted jurisdictions, usually with limited oversight.    Resources are, of course, necessary to recover and defend against future disasters. But have the investments made after Superstorm Sandy resulted in a stronger, more resilient New York? Just as importantly, have the Federal agencies worked together to maximize their individual investments? What can be done to improve?    That is what we are here to talk about today. My opening statement will discuss the rationale for Federal investments in storm resiliency projects and then highlight a few examples of Government working well, and also areas for improvement. I look forward to hearing from each agency, delving into some more specifics about their resiliency focus and how we can improve upon the status quo.    First, it is a fact that $1 spent today to mitigate flood risk will save many dollars after a disaster strikes. The Federal Government's focus on risk mitigation, particularly the concentrated focus after Sandy, will save lives and money in the future. It is a missed opportunity to replace in-kind homes and infrastructure after a disaster, only to leave them just as vulnerable to destruction during future disasters. That is why it is encouraging to see agencies like HUD place such a strong emphasis on resiliency projects.    But the investments should have a cohesive strategy. Not just HUD investments working together with other HUD investments, or Army Corps projects tying into other Army Corps projects. Where possible, HUD projects should complement FEMA projects, and USDA projects should complement Army Corps projects, and so on.    For example, it seems strange that differing FEMA and Army Corps standards would result in no change in flood insurance maps or premiums after the Army Corps completes a project designed to reduce flood risk. Yet, that has actually happened in some cases.    The response has not just been Federal. The city of New York has also devoted tremendous resources to Sandy recovery and has transformed the way it approaches disaster preparedness and recovery over the last 4 years.    Here at home, the city of New York has acted aggressively to advocate for Federal risk mitigation grants, coordinate investments and projects, and work toward a city less susceptible to storms like Sandy.    The Mayor's Office of Recovery and Resiliency, led by Dan Zarrilli, has an entire team dedicated to this cause. In general, an empowered office coordinating the different work happening in the city will minimize missed opportunities, save time, and maximize efficiencies. It's good to see that New York City is operating in this way.    We can find a great example of the benefits of collaboration right here on Staten Island. The Army Corps of Engineers is planning and designing a $600 million line of protection stretching from Ft. Wadsworth to Oakwood along Staten Island's eastern shore.    There have been obstacles and setbacks, but through each challenge the Mayor's Office, the Corps, and the National Park Service, which has jurisdiction over some of the land that the Corps is using, have worked collaboratively and productively to overcome them.    My team, along with Senator Chuck Schumer's office and Borough President James Oddo's office, is on the phone almost every week with the involved agencies to keep track of its progress and schedules.    While the Corps is not here today, this subcommittee will continue to maintain focus on the status of that project to ensure that it remains on time, on budget, and that it will deliver the expected results to the residents of Staten Island.    Despite great partnerships, agency turf battles seem to be unavoidable, and that's disappointing. The Corps and the USDA have been squabbling over easements, which has jeopardized a $32 million investment in Staten Island's ``Bluebelt,'' a natural drainage system crucial to the borough's sustainability. Oddly, each agency wants the same exact outcome, a flood drainage easement. I understand differences of opinion will arise across agencies, but collaboration must trump retrenchment. It is what the public expects and, more importantly, what they deserve.    We must also address the post-disaster housing recovery strategies to effectively mitigate risk. After spending upwards of $4.6 billion, New York City neighborhoods will be left with a hodgepodge of housing types. A single block could see a handful of elevated and rebuilt structures, a few empty lots, and the rest repaired in-kind. Is this the best possible outcome?    We must consider the question in the context of New York City's unique housing stock. Mitigation standards that work for single-family detached homes in the south don't work for multi-family attached structures here.    In fact, Federal one-size-fits-all floodplain building regulations actually prohibit repairing attached homes that suffered the most damage. Floodplain regulations require homes that suffered substantial damage to elevate during repairs, but attached homes can't be elevated. Owners of attached homes are stuck in this bureaucratic morass, unable to legally repair their structures and unsure of options aside from elevation that could reduce their flood risk. Urban areas like New York require detailed alternative mitigation options with commensurate flood insurance premium credits.    While inflexible Federal standards may impede urban post-disaster housing mitigation, New York City has benefited from creative new ventures like FEMA's 428 alternative process and HUD's resiliency competitions. I'm sure we will hear more about the successes of these programs from the agencies here today. In particular, I am interested in hearing FEMA's assessment of the Rapid Repairs program, which restored heat, hot water, and electricity to 20,000 residential structures in 90 days.    Last but not least, we will hear from representatives of charitable organizations and Southside Hospital. These organizations worked tirelessly to assist the residents in their communities after the storm, and each of them experienced their own challenges in these efforts.    Non-profits are often the most effective responders because they have deep local relationships and understand the needs of their friends and neighbors. My friend Vinny Ignizio, who leads Catholic Charities here on Staten Island today but was a council member during and after Sandy, has a unique perspective on how government and non-profits can improve their coordination in response to disasters. I am sure Ms. Higgs will also have a unique perspective on this issue.    Hospitals are among the most important critical infrastructure during and after a major disaster. SIUH, where we are here today, is in the 100-year floodplain, as is Southside, which faced tremendous flooding during Sandy.    Three Federal agencies--FEMA, HUD, and the VA--have made substantial resiliency investments in New York hospitals, and I am interested in hearing how the agencies have coordinated their investments to make them work together to maximize their utility. In particular, I am also interested in hearing from Southside Hospital in regard to their experiences working with FEMA since the storm.    As the subcommittee meets today, we are at the start of another hurricane season, and whether it is this year or in the years to come, another disaster will strike New York City. Four years after Sandy and the appropriation of more than $50 billion for the regional recovery effort, are we more prepared today than we were before?    This hearing will point us in the right direction. Now is the time to address any inadequate statutes, resolve any interagency turf battles, and build the relationships to ensure that we are a resilient community in the face of the next disaster.    Before I yield to my friend, the Ranking Member from New Jersey, Don Payne, for his opening statement, I want you all to know that when I was appointed the chairman of this subcommittee, I said that we wouldn't be holding hearings just for the sake of holding hearings. After each hearing that we have held this year since I became Chair, we have taken action on the information provided by our witnesses, whether it was successfully advocating for the restoration of homeland security grants that are vital to New York City and major urban areas around the country or introducing legislation to address cybersecurity challenges.    Today's hearing will be no different. Many of the issues I will raise today have been raised by my constituents, and I can assure you that we will work to consider and take action on the things we learn from today's hearing.    With that, I welcome our distinguished witnesses and yield back the balance of my time.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412506</t>
   </si>
   <si>
-    <t>Donald M. Payne, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Payne. Thank you. Good morning. I am pleased to join my good friend, Chairman Donovan, today in Staten Island to learn how the New York-New Jersey region has built itself better and stronger in the nearly 4 years following Superstorm Sandy.    But before I begin, I want to acknowledge the circumstances we find ourselves in today. Last week, National tragedies filled the headlines. My heart is heavy for the families of those who were killed in Baton Rouge, Falcon Heights, and Dallas. Although these tragedies happened far away from here, our communities are not immune from this kind of heartbreak. I hope that when we return to Washington this week, with only 5 legislative days remaining before a 7-week recess, the House will do something meaningful about law enforcement's relationship with diverse communities. I hope it will do something about the irrational access to military-style firearms that killed 5 brave police officers Thursday night, which has always been my concern of these weapons being available.    Our country can do better than this.    Turning the focus to today's field hearing, nearly 4 years ago Superstorm Sandy pummeled this region, destroying homes and communities and causing tens of billions of dollars in damage. Our region is not accustomed to responding to and recovering from storms of this magnitude, and our population density, coupled with significant infrastructure damage, certainly complicated the process.    I am proud of the hard work and compassion demonstrated by our local emergency responders in the days and weeks following the storm. I wish I could say the same for the government of my home State of New Jersey. In the years that followed the disaster, allegations surfaced that the Governor has played politics with disaster relief money, and to this day people complain that the State has been slow to distribute funds to those who need it.    As of April, approximately $1 billion in Federal funds has yet to be obligated. In the wake of the storm, people in low-income communities were hit hardest and ultimately struggled most to find affordable housing in the months that followed. These recovery challenges were exacerbated by the fact that many in low-income populations were not in a position to advocate for themselves to access the resources necessary to recover and become more resilient.    Today we are in the midst of hurricane season, and I am wondering what would be different if a storm like Sandy hit us today. Does the Federal Government have better measures in place to ensure that State governments administer programs supported by Federal dollars quickly and efficiently and not play politics with disaster relief? Are low-income communities as able to incorporate hazard mitigation and resilience activities into the disaster recovery efforts as more affluent communities are? If not, what are we doing about it?    Finally, what have we learned about how to best leverage the capabilities of charities and non-profit organizations in disaster response?    I look forward to the witnesses' testimony today and thoughts on what Congress can do to help make communities more resilient.    With that, Mr. Chairman, I yield back the balance of my time.</t>
   </si>
   <si>
@@ -79,18 +73,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Byrne</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Byrne. Thank you, Mr. Chairman. Good morning, Chairman Donovan and Members of the subcommittee. My name is Michael Byrne. I am the deputy regional administrator, and I am proud to be back here in New York as the Region II administrator, after serving as the Federal coordinating officer before in my time at the New York City Fire Department.    I would like to take this opportunity to share some best practices and lessons we learned from Sandy, and I will also address some changes made by Congress that we have integrated into those to promote resiliency and to expedite recovery from a disaster.    Thanks to new authorities given to us by Congress through the 2013 Sandy Recovery Improvement Act, or SRIA, we are now armed with more flexibility to implement our programs and to deliver Federal assistance; for example, in our Public Assistance Program, which provides funds to States and local governments and to eligible non-profits to cover debris removal, emergency work, and permanent repairs. To date, we have obligated over $14.5 billion in public assistance funding to New York and New Jersey. Thanks to the flexibility provided in SRIA and FEMA's internal commitment to make sure we emphasize resiliency, we have seen a significant increase in the project funding dedicated to mitigation. After Sandy, for every dollar that we spent to repair and restore, we spent an additional 34 to 85 cents to incorporate mitigation into these projects to improve resiliency, not just to build it back the way it was but to build it back stronger. This is a significant increase from past practices.    In one example, the New York City Health and Hospitals Corporation received more than $1.7 billion for permanent repairs in critical building systems at Bellevue, Coler, Coney Island, and Metropolitan Hospitals. Metropolitan strikes a chord with me because that is where, when I was a kid growing up, that is where they took me to get patched up after various and sundry accidents. In this case, the Hospital Corporation received $755 million of the total for hazard mitigation. That is more than one-third of the total funding that went to building back stronger and better. This additional resilience will reduce the impact of future storms on these facilities that serve more than 1 million people every year.    Another disaster program, the Hazard Mitigation Grant Program, or HMGP, which is one of our core programs, has spent nearly $1 billion it obligated in New York and New Jersey. This includes $45 million for this very hospital we are in today, the Staten Island University Hospital campus. Its funding, in coordination with funding from HUD, will elevate the utility systems in the main building to mitigate against future floods.    Thanks to SRIA, we are also implementing advanced assistance funding. These funds allow us to give out funds on the front end to develop smarter mitigation plans and obtain data to prioritize and develop projects for the remaining funds to be used even more appropriately.    In our other program area, the Individual Assistance Program, which is direct funding to families that are impacted, we provided over $1.4 billion in assistance to nearly 180,000 individuals and households after Sandy. We worked closely with the city and State partners to set up mobile teams that went door-to-door to make sure survivors were reached and taken care of. I am proud to say it was FDNY's management team that led the effort and coordinated it, and we were proud to be a part of it. This approach has been codified in the way FEMA does business now to better protect survivors.    In April 2013, FEMA created the Disaster Survivor Assistance Program, and these DSA teams have the training and the technology not just to wait for the call but to go out to the communities, to register, do case updates, and refer clients to other support.    One of the biggest challenges in recovery is coordinating across State, Federal, and local government to make sure that we maximize the impact. In Sandy we established the New York-New Jersey Federal Leadership Collaborative which provides an unparalleled format for Federal partners to conduct comprehensive, region-wide planning and identify opportunities to leverage dollars. This type of enhanced Federal recovery coordination continues to be implemented post-Sandy.    We have also seen as an example increased collaboration amongst the departments and agencies for unified Federal review. We are required to do environmental and historic preservation reviews whenever we are using Federal funds, and 11 departments and agencies have signed a Memorandum of Understanding to share that information so that each of our departments can work in a more streamlined way and reduce the review and duplication of effort.    Sandy was one of the largest, most complex disasters we have responded to in the past decade. With the associated challenges came the opportunity to develop innovations and efficiencies, and we will continue to work with Congress and other partners to build more resilient communities before and after disaster.    Thank you for the opportunity to testify. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Byrne.    The Chair now recognizes Ms. McFadden for 5 minutes.</t>
   </si>
   <si>
-    <t>McFadden</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McFadden. Chairman Donovan, Ranking Member Payne, and Members of the subcommittee, I am Marion Mollegen McFadden, deputy assistant secretary for grant programs. On behalf of Secretary Julian Castro, I appreciate the opportunity to testify before you today.    My testimony will cover 3 areas: The status of HUD's work to support long-term recovery from Hurricane Sandy; HUD's use of Federal disaster funds to increase resilience; and Federal and regional coordination after Sandy.    Sandy was one of the most devastating and costly National disasters in the Nation's history, causing tens of billions of dollars in damage, as you mentioned, Mr. Chairman, and directly affecting more than 17 million people from Puerto Rico to Maine. Since enactment of the Disaster Relief Appropriations Act in January 2013, HUD has moved aggressively to ensure that homeowners and businesses received assistance, and that critical infrastructure investments are made with an eye toward future storms.    The HUD Sandy recovery effort has resulted in new rules to better protect Federal recovery investment, requiring, for example, higher elevation of repaired homes located in areas prone to flooding, and requiring that larger infrastructure projects become more resilient. To date, Sandy grantees have worked together to assist more than 14,000 single-family households across the region, to fully repair their homes, or to help them find new housing. Billions of dollars of CDBG-DR assistance will also be invested in more resilient infrastructure.    Recovery, however, can never be fast enough. There remain areas where homeowners are still waiting to return to their homes, and HUD is working vigorously and continuously to find ways to accelerate the recovery. For example, for the first time HUD is allowing grantees to advance funds to homeowners to start reconstruction while withholding final payment until project completion. HUD has also used its authority to grant dozens of Sandy-specific waivers in order to meet local recovery needs, including allowing the development of protected infrastructure investment on private property.    Historically, disaster recovery has both done returning community assets to the location and condition that existed before the storm, but today extreme weather events demand a new focus on ensuring the resiliency of communities. HUD is investing new Federal resources in resiliency initiatives to serve as models for communities to prepare for the next disaster. Through the Rebuild By Design, or RBD initiative, HUD has allocated $930 million for flood mitigation projects to increase resilience throughout the Sandy-affected region. Through a competitive process, Rebuild By Design led to the selection of 7 projects across the region, including one particularly innovative project now underway here on Staten Island.    Through RBD, New York State is investing $60 million of CDBG-DR funds in the Living Breakwaters project in Tottenville to construct a system of breakwaters that will span the South Shore. In New Jersey, $203 million of Rebuild By Design investments are also helping the cities of Hoboken, Weehawken and Jersey City to develop a new urban water strategy, with $146 million of Federal transit funds, and providing another example of Federal and local coordination of resilient investment.    Similarly, to the National Disaster Resilience Competition, HUD has allocated nearly $1 billion of CDBG disaster recovery funds to support 13 State and local governments and their investment in new resilient infrastructure and housing, including $176 million for the city of New York to build new coastal flood protection for the neighborhoods of Southern Manhattan.    Beyond the city's investments, across the country, Shelby County, Tennessee will invest $60 million to create new greenways to reduce flood risk in future storms. Iowa will receive more than $96 million for watershed improvements and more resilient housing. California will invest more than $70 million for development of a biomass facility in response to wildfire damage. These and other initiatives growing out of the Sandy recovery have led to unprecedented new partnerships for HUD and other Federal, State, and local agencies. One of the most successful examples of those partnerships, as Mr. Byrne mentioned, is the Sandy Regional Infrastructure Resilience Coordination Group and Collaborative, led by FEMA.    [Alarm.]</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t xml:space="preserve">    Mr. Donovan. Thank you, Ms. McFadden.    The Chair now recognizes Mr. Zarrilli for 5 minutes.</t>
   </si>
   <si>
-    <t>Zarrilli</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Zarrilli. Good morning, Chair Donovan and Ranking Member Payne. My name is Daniel Zarrilli. I am the senior director for climate policy and programs at the New York City Mayor's Office. I would like to congratulate Chairman Donovan on his appointment as Chair of this committee, and on behalf of Mayor Bill de Blasio I want to thank the Members for this opportunity to speak about our efforts to build a more prepared and more resilient city.    Nearly 4 years ago Hurricane Sandy hit New York City with unprecedented force, tragically killing 44 New Yorkers and causing over $19 billion in damages and lost economic activity in the city. Here on Staten Island we saw some of the worst of Sandy. In the Staten Island University Hospital, where we are having this discussion today, it was nearly inundated, which is why we were proud to support the hospital with $28 million for a resiliency program, and why we are working with so many partners on critical resiliency investments on Staten Island and across the city.    Today I plan to briefly describe the city's resiliency program and how we are investing to ensure that our city will be ready to withstand and is much stronger from the impacts of climate change and other 21st Century threats. I also plan to offer suggestions for how Congress and our Federal partners can continue to support cities like New York with disaster recovery and preparing for the inevitable impacts that climate change will bring.    In the aftermath of Sandy, we put forth a comprehensive plan to rebuild the neighborhoods hardest hit by Sandy and to also prepare our city for the impacts of climate change. That plan, ``A Stronger, More Resilient New York,'' launched our over $20 billion resiliency program, improving our coastline, upgrading our buildings, rebuilding homes, improving our infrastructure, and generally improving our neighborhoods across the city.    In April 2015, Mayor de Blasio expanded and accelerated that work through OneNYC program. With OneNYC, we are putting in place a multi-layered resiliency plan, making our city safer, and we are holding ourselves accountable for these results by publishing an annual progress report of that work, the last of which was published in April 2016.    In so many ways, Federal support has been critical to these efforts. We have been blessed with the necessary funding, we have seen innovation, and we have witnessed challenges along the way. In the spirit of constructive feedback, I would like to offer several recommendations for how Congress and our Federal partners can better support cities as we continue to recover from Sandy and prepare for the future.    First, in response to Hurricane Sandy, the city and FEMA developed a hotel sheltering program and our Rapid Repairs Program, two innovative sheltering solutions tailored to an urban environment where traditional approaches like trailers are unworkable. Between November 2012 and September 2013, the hotel program provided emergency shelter in city hotels to over 1,300 displaced households. Rapid Repairs restored basic services to over 20,000 flooded homes and helping those households avoid long-term displacement. Both programs could be a model for responding to displacement in the future.    Second, Congress authorized an innovative FEMA public assistance pilot program called Section 428. To date, the city has been the single biggest user of this program, with nearly $5.9 billion worth of infrastructure investments underway. This more flexible and accountable program should be made a permanent feature of the Federal Government's disaster response and resiliency toolkit.    Third, FEMA's National Flood Insurance Program requires fundamental reform. Congress should act to expand mitigation options and funding, including increasing pre-disaster mitigation funding and offering partial credit on insurance premiums for partial mitigation measures; and No. 2, to ensure the affordability of flood insurance for those most in need of its coverage.    Fourth, the city is working toward a successful resolution to its appeal of FEMA's 2015 flood insurance rate maps, which we have demonstrated overstate the size of the city's 100-year flood plain due to inaccuracies in FEMA's underlying analysis. We urge FEMA to resolve the appeal and adopt accurate flood maps for the city.    Fifth, FEMA's Hazard Mitigation Grant Program has been a mechanism for the city to fund long-term and cost-effective resiliency projects, but to ensure that funds go where they are needed most, FEMA should consider issuing guidance to States to direct a fair share of HMGP dollars to local jurisdictions most affected by disaster.    Sixth, climate change is proving we need to improve Federal coordination to expedite implementation of key projects. For example, as you noted, although $32 million in USDA funds have been secured for bluebelts here on Staten Island, it is stalling because USDA and Army Corps can't agree on conservation easements. Benefit/cost ratios could be rationalized across agencies since each agency has its own methodology. These methodologies should be amended to support faster recovery and improved so as not to disadvantage low-income communities when comparing mitigation projects. Similarly, Congress should also urge Federal agencies to coordinate environmental reviews when multiple agencies contribute funding to a single project.    Finally, as we all know, fuel shortages plagued the city for weeks after Hurricane Sandy, and the lack of information sharing regarding the fuel supply made decision making difficult. Congress should urge the Department of Energy to establish data-sharing requirements for the industry to report critical facility-specific information.    To conclude, as our understanding of the impacts of climate change continues to improve, we are improving now to reduce risk and prepare for the future. This requires even greater partnership with Congress and the Federal Government to support local climate adaptation. We thank our Federal partners here today for their tireless work to support recovery and resiliency in New York City and urge them to continue to help us maintain our momentum as we build a more resilient city.    I would like to thank Chairman Donovan and Ranking Member Payne for their leadership as we work together to confront the challenges that climate change will bring to our Nation. Thank you very much.</t>
   </si>
   <si>
@@ -175,9 +160,6 @@
     <t xml:space="preserve">    Mr. Donovan. I would like to welcome our second panel to today's hearing and thank them for their participation.    Mr. Vincent Ignizio serves as the chief executive officer of Catholic Charities of Staten Island, a position he has held since July 2015. Prior to joining Catholic Charities, Mr. Ignizio served as the minority leader of the New York City Council and as a New York State Assemblyman representing southern Staten Island.    Welcome, Mr. Ignizio.</t>
   </si>
   <si>
-    <t>Ignizio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ignizio. Thank you, Chairman Donovan, esteemed Members of the subcommittee--oh, I'm sorry, pardon me. I am already rolling right into it.    [Laughter.]</t>
   </si>
   <si>
@@ -193,25 +175,16 @@
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Ignizio.    Mr. Gair.</t>
   </si>
   <si>
-    <t>Gair</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gair. Good morning, Mr. Chairman, Representative Payne. My name is Brad Gair. I am currently vice president of emergency management and enterprise resilience at NYU Langone Medical Center. After Hurricane Sandy, I was the director of Housing Recovery Operations in the Mayor's Office, and also coordinated the city's multi-billion-dollar FEMA recovery program. Previously I served as deputy commissioner with the New York City Office of Emergency Management and as a FEMA Federal coordinating officer, during which time I worked on numerous large-scale disasters, including serving as the Federal Recovery Officer in New York City after 9/11 and in Louisiana after Hurricane Katrina.    I am grateful for this opportunity to address the subcommittee today. Based upon more than 2 decades of experience in the business of disaster recovery and resilience, I offer the following four points for your consideration.    No. 1. We need a National dialog to agree upon recovery values. As citizens of a caring Nation, we have a natural inclination to want to help and assist our neighbors after the devastating losses that accompany large-scale disasters. Unfortunately, we have yet to agree at the National level upon how much we should do to aid disaster survivors. As a result, we have created a series of programs that, in the end, serve neither the taxpayers nor those families who may have lost everything. Every time a major disaster occurs in this country, the same unanswered questions plague recovery efforts: How much help is fair and reasonable? Should the taxpayers across the Nation share this burden? Who is responsible for getting families back into their homes? Why not require insurance? How much should we invest in making communities more disaster-resilient, and are there areas where we should not build back at all? The answers to these questions and many similar ones depend upon whom you ask.    FEMA's mantra is: ``We are not here to make you whole.'' Does that represent the collective wisdom of our Federal agencies and our Nation's lawmakers, or is it simply a rationale for inadequate programs that have filled a vacuum created by a lack of consensus, unclear guidance, and muddled authorities? Until we agree upon the basic parameters of post-disaster assistance grounded in consideration of these types of issues, even the best-conceived programs would fail to meet the expectations of the Government, the disaster survivors, and the American people.    No. 2. Existing recovery programs and resilience programs are poorly structured and badly implemented. The Federal Government often speaks of the sequence of delivery and disaster assistance as if there is a coherent plan behind it all when in reality it is a series of patchwork programs that, more than anything else, confuse, frustrate, and demoralize both those in need of aid and those trying to provide it. Our existing recovery programs do not work for the majority of families impacted by disasters, not individually and not collectively.    The National Flood Insurance Program is broken, possibly beyond repair. FEMA's cap on assistance to families at barely $30,000 makes little economic sense. Asking families to take on new debt through Small Business Administration loans is always a hard sell to those who have already lost so much. Charitable organizations trying to fill the gap without sufficient data on the needs and very little coordination with Government agencies end up wasting millions of donated dollars, and the HUD CBDG program, when authorized, is expected to be the magic bullet, and instead ends up being just another self-inflicted wound for the Federal Government.    From the Road Home program in post-Hurricane Katrina Louisiana, to Build-It-Back in post-Sandy New York City, HUD CBDG programs have generally been categorical failures in supporting timely and effective housing recovery. Once Congress authorizes the funds, the process for getting these funds from the Federal Treasury to those in need is unacceptably long, inexplicably convoluted, and inexcusably wasteful. It would be very easy to simply blame bumbling bureaucrats and greedy contractors, and no doubt we must all do better. But the root of the problem is that no State and no local government, regardless of its capability, can successfully create and set up in a few months what amounts to a multi-billion-dollar corporation with hundreds of employees and contractors, numerous store-front locations, a broad-based marketing campaign, and integrated customer service operations while tens of thousands of desperate customers must anxiously wait for help as their hope dwindles.    HUD touts the flexibility of the CDBG-DR, which does indeed give communities considerable latitude in program design, but I would trade much of this flexibility for a pre-approved, off-the-shelf program, complete with reasonable environmental waivers, a unified damage inspection process, unrestricted data sharing across the Government to minimize the paperwork burden on our customers, and a proven electronic case management system that could be quickly and efficiently operationalized. A properly-designed recovery program would be integrated with all other Federal programs to avoid the twin obstacles of excessive bureaucracy and unavoidable duplications of benefits that currently lead to extensive delays and universally bad results.    No. 3. Post-disaster coordination across the Federal agencies is insufficient. In the 10-block stretch along the East River in Manhattan in the area known as Hospital Row, FEMA, HUD, and the VA have individually funded hundreds of millions of dollars of resilience improvements without making any attempt whatsoever to coordinate these critical infrastructure projects at NYU Langone Medical Center, Bellevue Hospital, the VA Hospital and the Rebuild By Design East Coast Resiliency Project, formerly known as the Big U.    Similarly, right here on Staten Island, one Federal agency's funds are being used to buy out homes and convert the land to open space due to the extreme long-term flooding risk, while another Federal agency is designing a seawall that will ultimately provide substantially increased flood protection for this exact same property.    I am not saying that anything has been done wrong in these cases or any other countless similar cases, and at NYU Langone we are extremely grateful for the Federal assistance. The point is that maybe with better coordination, we could have done even more right. As a result, the Federal Government continues to miss opportunities to enhance flood protection, maximize the use of tax dollars, and ensure that investments in resilience are properly integrated.    The challenge is that no single Federal agency has the appropriate authority to directly coordinate these recovery programs in the way that FEMA does during the disaster response process. The second version of the National Disaster Recovery Framework was just issued last month and still does not include any formal mechanisms empowering FEMA or any other Federal agency to oversee and manage across the Federal recovery programs. Until this occurs, each agency will continue to work in isolation, and hundreds of millions of dollars in missed opportunities to leverage Federal funding will continue to accrue.    Fourth and last. We need a comprehensive National resilience strategy. FEMA has 4 different hazard mitigation programs and has devoted billions of dollars to resilience post-Hurricane Sandy. HUD does encourage resilience in its CDBG programs by State and local governments, and separately dedicated $1 billion to the Rebuild By Design resilience competition. The Federal Transit Administration awarded $3 billion of resilience grants to local and State governments, and Army Corps of Engineers received authorization for $4 billion of Hurricane Sandy-related projects.    While this commitment to resilience is commendable, each agency is left to establish its own ideas of what resilience means and how best to achieve it. As a result, there is no coherent overarching National resilience strategy in place to guide our investments.    In the months after Hurricane Sandy, New York City devoted significant time and resources to devising the Special Initiative for Rebuilding and Resiliency to guide recovery based upon locally-derived resilience values. In a completely separate initiative at the Federal level, 23 agencies comprising the Hurricane Sandy Rebuilding Task Force developed a Hurricane Sandy Rebuilding Strategy, including 69 recommendations, many of which were focused on resilience but few of which have been implemented. These initiatives are a good start, but a few months of hard work in the immediate aftermath of a single major hurricane should not be expected to set long-term National policy.    We need the Federal Government, in cooperation with State, Tribal, and local governments, and the private sector, to develop a comprehensive National resilience strategy, establishing clear and measurable resilience objectives, and taking into account the latest scientific evidence, the values that communities hold dear, and everything in between. Furthermore, this Federally-driven resilience strategy must include an implementation plan and be tied directly to Federal funding assistance, or else it will be summarily ignored.    We are all here today for the exact same reason that many similar Congressional committees and subcommittees have been convened in the aftermath of virtually every major disaster over the past several decades: The system is broken, everyone is mad, and billions of dollars continue to be wasted. The Post-Hurricane Katrina Reform Act reformed next to nothing, and the Hurricane Sandy Improvement Act improved far too little. Now let's try something different. Let's start over, decide who and how much we want to help, establish a comprehensive policy for disaster resilience and recovery, devise an implementation strategy, build an integrated set of programs that get the job done, and empower our hard-working public servants to lead genuine, sustainable, cost-effective efforts that restore communities and support families in their time of need.    Thank you very much, and I would be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Gair.    The Chair recognizes Ms. Moravick for 5 minutes.</t>
   </si>
   <si>
-    <t>Moravick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Moravick. Hi. I want to thank you both for allowing me to be here today.    Southside Hospital is a 341-bed tertiary facility on the South Shore of Long Island in western Suffolk. We are a relatively new tertiary facility. We provide cardiac surgery care, cardiac care. We are a level-2 ACS, the American College of Surgeons, trauma center.    On October 29, as we all know, 2012, we were really securing our borders and our entire campus for Hurricane Sandy. But we didn't start on the 29. We started 3 days earlier.    I am actually a nurse and a nurse practitioner, and I believe in primary prevention as the treatment of choice, so we went into gear. We rallied the staff. We told them, bring your clothes, you are staying here for a good 2 to 3 days, and we are not leaving, even though they too may have had homes that would be destroyed during the hurricane. We went into action. We secured our core business. We have low-lying electric gear. We have our switch gear, and our generators are on the ground floor. We had purchased doors which I call the dam doors, but they are doors that dam the water out of that area. I am very visual, I have to see everything. So during the hurricane, we had administration there 24/7, all surgeons in-house, all cardiac surgeons, trauma, emergency room staff, and we were prepared for anything. We knew that if any other hospital in the community went down, we would have to be open.    Our emergency room is there for our patients. We serve a very diverse community, which is really extremely important, and we are about $900 million of economic impact to our community.    So our doors were open, and we were not shutting them at any cost. We identified those high-acuity patients that were requiring intubation or being on a respirator, and we put them in ambulances and transported them to higher ground, a tertiary facility in our health system. We had constant calls every 4 hours, every 2 hours at times during the height of the storm. But as an executive director of a hospital, I never thought I would have to know high tide and moon phase, which hit simultaneously on the South Shore of Long Island.    We are within 1,000 feet of tributaries that empty into the Great South Bay, and it was very scary seeing the water rise up to the doors of the hospital, sandbags. We really had to put a lot of people outside during this event to be sure that we had pumps going and our generators were working.    Power was lost in the community, and what people do not recognize is the hospital is a safe haven for everyone. We had those worried well older patients, moms with their babies who had no light who would come into the hospital. We had a bar of oxygen across the emergency room with people breathing in our emergency room because they could and they needed to.    So it was really a difficult time. The roads were shut down at one point in time. But I believe we persevered. We were prepared. We were ready to rumble. Whatever we could mitigate, we did at that time. We were backing up other institutions who were flooded and needed help. We were available for any other institution. We received calls from the Town of Islip, and we worked collaboratively with them.    But I do believe that hospitals are an integral part of our community, and we are there in times of need. Patients who are well, patients who are sick, we are the place to go. Our emergency room was jam-packed with people who just were scared and didn't want to be home in their homes.    So again, I think preparedness for hospitals is key, and we are the place where people will come during catastrophic events.    Thank you for letting me speak.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you.    The Chair recognizes Ms. Higgs for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Higgs</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Higgs. Thank you very much, Chairman Donovan and Ranking Member Payne, for convening this hearing on the importance of preparedness and resiliency and inviting me to testify on this critical topic.    New Jersey Voluntary Organizations Active in Disaster, or NJVOAD's mission is to bring together New Jersey organizations in disaster response and recovery in order to offer more effective services to people and communities affected by disaster. Our success derives from strong relationships built on the foundation of the four C's, which are cooperation, communication, coordination, and collaboration.    It is my belief that these same foundational building blocks have contributed to many successful partnerships, projects, and outcomes in the aftermath of Sandy. Conversely, when these key ingredients were not present, programs struggled and/or failed.    There have been many lessons learned throughout Sandy recovery, but my testimony today will focus on 4 areas.    First, the need to build partnerships and relationships at the local, county, and regional level before disaster strikes.    Second, the need for early education and outreach to impacted households.    Third, the importance of building partnerships with the philanthropic community and advocating for funding allocation decisions which sustain true long-term recovery efforts.    Fourth, the need for coordination and continuity in the development and implementation of State-managed programs utilizing community development and social service block grant funds.    With the support of the Corporation for National Community Service, grants utilized VISTAs, or Volunteers in Service to America, to build capacity. NJVOAD has been able to establish a VOAD presence in every county in New Jersey, and this is pretty remarkable because there were only 6 in place before Sandy struck. We saw the benefit of this in Bergen County, where the VOAD had a strong network of area non-profits and a solid relationship with the Office of Emergency Management prior to Sandy. As a result, they were able to quickly mobilize non-profit resources for response and recovery efforts in impacted communities.    Sadly, Hudson County, Essex County, and Union, and many of the most impacted counties to the south of Bergen, did not have a VOAD in place prior to Sandy, and as a result they needed a tremendous amount of support in identifying partners and resources, which delayed the speed and efficiency of service delivery to impacted individuals.    NJVOAD worked in these and all 21 counties throughout the State to identify non-profit and governmental partners to join the VOAD to coordinate outreach events, to identify leadership to ensure regular meetings and training, and to organize individual structures that meet the unique needs of each of these communities.    Other States are looking at NJVOAD's program as a model for resiliency, and we are working with our Corporation for National Community Service and our FEMA Region 2 partners to replicate these efforts through a regional pilot program.    Almost 4 years post-Sandy, the need for recovery support far outweighs the remaining non-profit resources. The remaining cases consist primarily of low-income households with limited means for recovery, or moderate-income households that encountered several challenges navigating the complicated recovery road. Many of these households began recovery work before documenting the damage, and they have not been able to provide sufficient proof of that damage to receive the funds they should be entitled to through the National Flood Insurance Program. Others signed contracts they could not afford or hired disreputable contractors to complete recovery work.    NJVOAD is developing educational resources to be utilized in future disasters so that impacted homeowners can make informed decisions before beginning their recovery.    NJVOAD is also working closely with the philanthropic community to identify collaborative solutions which will provide for a more effective and sustainable funding stream for future disasters. Education extending to our Government partners and the public is critical to ensure better understanding of the need for funding to sustain recovery efforts long term.    The majority of money is donated in the days and weeks following a major disaster, with the expectation and sometimes the mandate that these funds get out immediately, but that is not when donated dollars are most needed. NJVOAD hopes to establish a State-wide advisory group with representatives from the philanthropic, Government, and non-profit communities to provide guidance and expertise specific to the disaster at hand.    The struggle to navigate the State recovery programs remains one of the biggest challenges faced by New Jersey Sandy survivors and non-profit organizations. For instance, RREM, which is New Jersey's Rebuild program, was developed without consideration of funding for rental assistance, which can and should be covered by block grants. Millions of non-profit donated dollars were expended on rental assistance so that Sandy survivors could maintain mortgages on uninhabitable homes. Attempts to advocate with State and Federal agencies to address this and other deficiencies were not productive, as each held the other accountable for roadblocks to progress.    NJVOAD has forged relationships with the New Jersey Division of Consumer Affairs, and we have seen small concessions, but much improvement is needed in how these programs are designed and integrated into the overall disaster recovery framework. A stronger citizen action plan should be mandated which requires input and involvement by disaster survivors and recovery entities during the formation of any proposed disaster recovery action plan. Additionally, better integration and staffing of the joint field offices to include State decision makers responsible for the development and implementation of recovery programs could go a long way in future coordination and integration of Governmental programs.    NJVOAD is committed to working with our public- and private-sector partners to be part of the solution in implementing lessons learned from Sandy and preparing our communities to weather whatever storms might lie ahead.    Thank you again for the opportunity to testify, and I look forward to answering any questions.</t>
@@ -736,11 +709,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -762,11 +733,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -786,13 +755,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -814,11 +781,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -840,11 +805,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -864,13 +827,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -892,11 +853,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -916,13 +875,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -944,11 +901,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -970,11 +925,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -996,11 +949,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1022,11 +973,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1048,11 +997,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1072,13 +1019,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1100,11 +1045,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1124,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1152,11 +1093,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1176,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1204,11 +1141,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1228,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1254,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1282,11 +1213,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1306,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1334,11 +1261,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1358,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1384,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1410,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1436,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1462,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1488,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1514,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1540,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1568,11 +1477,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1594,11 +1501,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1618,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>53</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1646,11 +1549,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1672,11 +1573,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1696,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>53</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1724,11 +1621,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1748,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>59</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1776,11 +1669,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1800,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>62</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1828,11 +1717,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1852,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>65</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1880,11 +1765,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1904,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>53</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1932,11 +1813,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1956,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>65</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1984,11 +1861,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2008,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>59</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2036,11 +1909,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2060,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>62</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2088,11 +1957,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2112,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2138,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2164,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>53</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2190,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2216,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>53</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2242,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2268,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>65</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2294,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2320,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>65</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2346,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2372,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>59</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2398,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>53</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2424,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2450,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>65</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2476,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2502,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>65</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2528,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2556,11 +2389,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2582,11 +2413,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2606,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>53</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2634,11 +2461,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2658,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s">
-        <v>59</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2686,11 +2509,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2710,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s">
-        <v>59</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2736,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2764,11 +2581,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2788,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>62</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2814,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s">
-        <v>65</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2840,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2866,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>65</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2894,11 +2701,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2920,11 +2725,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg25263.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25263.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412672</t>
   </si>
   <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, ladies and gentlemen, for attending today. I just wanted to warn that at 10 o'clock the hospital has some type of drill that is going to go on, so you are going to hear alarms. It has nothing to do with the hearing, and it doesn't mean it is over, to our witnesses. Thank you.    The Committee on Homeland Security's Subcommittee on Emergency Preparedness, Response, and Communications will come to order.    The subcommittee is meeting today to examine efforts to ensure community resilience. I appreciate the effort taken on behalf of all those involved to have this important field hearing take place. This is an official Congressional hearing, as opposed to a town hall meeting and, as such, we must abide by certain rules of the Committee on Homeland Security and the House of Representatives. I kindly wish to remind our guests today that demonstrations from the audience, including applause and verbal outbursts, as well as any use of signs or placards, are a violation of the rules of the House of Representatives. It is important that we respect the decorum and the rules of this committee.    I now recognize myself for an opening statement.    Thank you all for taking the time to appear today before the Subcommittee on Emergency Preparedness, Response, and Communications, and I thank Staten Island University Hospital for hosting us in this beautiful facility.    Nearly 4 years ago, a perfect confluence of circumstances brought Superstorm Sandy and its devastating storm surge to our doorstep. Dozens of New Yorkers lost their lives, thousands of homes were damaged or destroyed, and billions of dollars have been spent in the aftermath.    Oftentimes after a disaster like this, the public just wants to see action--something, anything--being done to fix it. Under the gun, Congress drafts legislation to allocate massive sums to Federal agencies and to impacted jurisdictions, usually with limited oversight.    Resources are, of course, necessary to recover and defend against future disasters. But have the investments made after Superstorm Sandy resulted in a stronger, more resilient New York? Just as importantly, have the Federal agencies worked together to maximize their individual investments? What can be done to improve?    That is what we are here to talk about today. My opening statement will discuss the rationale for Federal investments in storm resiliency projects and then highlight a few examples of Government working well, and also areas for improvement. I look forward to hearing from each agency, delving into some more specifics about their resiliency focus and how we can improve upon the status quo.    First, it is a fact that $1 spent today to mitigate flood risk will save many dollars after a disaster strikes. The Federal Government's focus on risk mitigation, particularly the concentrated focus after Sandy, will save lives and money in the future. It is a missed opportunity to replace in-kind homes and infrastructure after a disaster, only to leave them just as vulnerable to destruction during future disasters. That is why it is encouraging to see agencies like HUD place such a strong emphasis on resiliency projects.    But the investments should have a cohesive strategy. Not just HUD investments working together with other HUD investments, or Army Corps projects tying into other Army Corps projects. Where possible, HUD projects should complement FEMA projects, and USDA projects should complement Army Corps projects, and so on.    For example, it seems strange that differing FEMA and Army Corps standards would result in no change in flood insurance maps or premiums after the Army Corps completes a project designed to reduce flood risk. Yet, that has actually happened in some cases.    The response has not just been Federal. The city of New York has also devoted tremendous resources to Sandy recovery and has transformed the way it approaches disaster preparedness and recovery over the last 4 years.    Here at home, the city of New York has acted aggressively to advocate for Federal risk mitigation grants, coordinate investments and projects, and work toward a city less susceptible to storms like Sandy.    The Mayor's Office of Recovery and Resiliency, led by Dan Zarrilli, has an entire team dedicated to this cause. In general, an empowered office coordinating the different work happening in the city will minimize missed opportunities, save time, and maximize efficiencies. It's good to see that New York City is operating in this way.    We can find a great example of the benefits of collaboration right here on Staten Island. The Army Corps of Engineers is planning and designing a $600 million line of protection stretching from Ft. Wadsworth to Oakwood along Staten Island's eastern shore.    There have been obstacles and setbacks, but through each challenge the Mayor's Office, the Corps, and the National Park Service, which has jurisdiction over some of the land that the Corps is using, have worked collaboratively and productively to overcome them.    My team, along with Senator Chuck Schumer's office and Borough President James Oddo's office, is on the phone almost every week with the involved agencies to keep track of its progress and schedules.    While the Corps is not here today, this subcommittee will continue to maintain focus on the status of that project to ensure that it remains on time, on budget, and that it will deliver the expected results to the residents of Staten Island.    Despite great partnerships, agency turf battles seem to be unavoidable, and that's disappointing. The Corps and the USDA have been squabbling over easements, which has jeopardized a $32 million investment in Staten Island's ``Bluebelt,'' a natural drainage system crucial to the borough's sustainability. Oddly, each agency wants the same exact outcome, a flood drainage easement. I understand differences of opinion will arise across agencies, but collaboration must trump retrenchment. It is what the public expects and, more importantly, what they deserve.    We must also address the post-disaster housing recovery strategies to effectively mitigate risk. After spending upwards of $4.6 billion, New York City neighborhoods will be left with a hodgepodge of housing types. A single block could see a handful of elevated and rebuilt structures, a few empty lots, and the rest repaired in-kind. Is this the best possible outcome?    We must consider the question in the context of New York City's unique housing stock. Mitigation standards that work for single-family detached homes in the south don't work for multi-family attached structures here.    In fact, Federal one-size-fits-all floodplain building regulations actually prohibit repairing attached homes that suffered the most damage. Floodplain regulations require homes that suffered substantial damage to elevate during repairs, but attached homes can't be elevated. Owners of attached homes are stuck in this bureaucratic morass, unable to legally repair their structures and unsure of options aside from elevation that could reduce their flood risk. Urban areas like New York require detailed alternative mitigation options with commensurate flood insurance premium credits.    While inflexible Federal standards may impede urban post-disaster housing mitigation, New York City has benefited from creative new ventures like FEMA's 428 alternative process and HUD's resiliency competitions. I'm sure we will hear more about the successes of these programs from the agencies here today. In particular, I am interested in hearing FEMA's assessment of the Rapid Repairs program, which restored heat, hot water, and electricity to 20,000 residential structures in 90 days.    Last but not least, we will hear from representatives of charitable organizations and Southside Hospital. These organizations worked tirelessly to assist the residents in their communities after the storm, and each of them experienced their own challenges in these efforts.    Non-profits are often the most effective responders because they have deep local relationships and understand the needs of their friends and neighbors. My friend Vinny Ignizio, who leads Catholic Charities here on Staten Island today but was a council member during and after Sandy, has a unique perspective on how government and non-profits can improve their coordination in response to disasters. I am sure Ms. Higgs will also have a unique perspective on this issue.    Hospitals are among the most important critical infrastructure during and after a major disaster. SIUH, where we are here today, is in the 100-year floodplain, as is Southside, which faced tremendous flooding during Sandy.    Three Federal agencies--FEMA, HUD, and the VA--have made substantial resiliency investments in New York hospitals, and I am interested in hearing how the agencies have coordinated their investments to make them work together to maximize their utility. In particular, I am also interested in hearing from Southside Hospital in regard to their experiences working with FEMA since the storm.    As the subcommittee meets today, we are at the start of another hurricane season, and whether it is this year or in the years to come, another disaster will strike New York City. Four years after Sandy and the appropriation of more than $50 billion for the regional recovery effort, are we more prepared today than we were before?    This hearing will point us in the right direction. Now is the time to address any inadequate statutes, resolve any interagency turf battles, and build the relationships to ensure that we are a resilient community in the face of the next disaster.    Before I yield to my friend, the Ranking Member from New Jersey, Don Payne, for his opening statement, I want you all to know that when I was appointed the chairman of this subcommittee, I said that we wouldn't be holding hearings just for the sake of holding hearings. After each hearing that we have held this year since I became Chair, we have taken action on the information provided by our witnesses, whether it was successfully advocating for the restoration of homeland security grants that are vital to New York City and major urban areas around the country or introducing legislation to address cybersecurity challenges.    Today's hearing will be no different. Many of the issues I will raise today have been raised by my constituents, and I can assure you that we will work to consider and take action on the things we learn from today's hearing.    With that, I welcome our distinguished witnesses and yield back the balance of my time.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412506</t>
   </si>
   <si>
+    <t>Payne</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Payne. Thank you. Good morning. I am pleased to join my good friend, Chairman Donovan, today in Staten Island to learn how the New York-New Jersey region has built itself better and stronger in the nearly 4 years following Superstorm Sandy.    But before I begin, I want to acknowledge the circumstances we find ourselves in today. Last week, National tragedies filled the headlines. My heart is heavy for the families of those who were killed in Baton Rouge, Falcon Heights, and Dallas. Although these tragedies happened far away from here, our communities are not immune from this kind of heartbreak. I hope that when we return to Washington this week, with only 5 legislative days remaining before a 7-week recess, the House will do something meaningful about law enforcement's relationship with diverse communities. I hope it will do something about the irrational access to military-style firearms that killed 5 brave police officers Thursday night, which has always been my concern of these weapons being available.    Our country can do better than this.    Turning the focus to today's field hearing, nearly 4 years ago Superstorm Sandy pummeled this region, destroying homes and communities and causing tens of billions of dollars in damage. Our region is not accustomed to responding to and recovering from storms of this magnitude, and our population density, coupled with significant infrastructure damage, certainly complicated the process.    I am proud of the hard work and compassion demonstrated by our local emergency responders in the days and weeks following the storm. I wish I could say the same for the government of my home State of New Jersey. In the years that followed the disaster, allegations surfaced that the Governor has played politics with disaster relief money, and to this day people complain that the State has been slow to distribute funds to those who need it.    As of April, approximately $1 billion in Federal funds has yet to be obligated. In the wake of the storm, people in low-income communities were hit hardest and ultimately struggled most to find affordable housing in the months that followed. These recovery challenges were exacerbated by the fact that many in low-income populations were not in a position to advocate for themselves to access the resources necessary to recover and become more resilient.    Today we are in the midst of hurricane season, and I am wondering what would be different if a storm like Sandy hit us today. Does the Federal Government have better measures in place to ensure that State governments administer programs supported by Federal dollars quickly and efficiently and not play politics with disaster relief? Are low-income communities as able to incorporate hazard mitigation and resilience activities into the disaster recovery efforts as more affluent communities are? If not, what are we doing about it?    Finally, what have we learned about how to best leverage the capabilities of charities and non-profit organizations in disaster response?    I look forward to the witnesses' testimony today and thoughts on what Congress can do to help make communities more resilient.    With that, Mr. Chairman, I yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,12 +88,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Byrne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Byrne. Thank you, Mr. Chairman. Good morning, Chairman Donovan and Members of the subcommittee. My name is Michael Byrne. I am the deputy regional administrator, and I am proud to be back here in New York as the Region II administrator, after serving as the Federal coordinating officer before in my time at the New York City Fire Department.    I would like to take this opportunity to share some best practices and lessons we learned from Sandy, and I will also address some changes made by Congress that we have integrated into those to promote resiliency and to expedite recovery from a disaster.    Thanks to new authorities given to us by Congress through the 2013 Sandy Recovery Improvement Act, or SRIA, we are now armed with more flexibility to implement our programs and to deliver Federal assistance; for example, in our Public Assistance Program, which provides funds to States and local governments and to eligible non-profits to cover debris removal, emergency work, and permanent repairs. To date, we have obligated over $14.5 billion in public assistance funding to New York and New Jersey. Thanks to the flexibility provided in SRIA and FEMA's internal commitment to make sure we emphasize resiliency, we have seen a significant increase in the project funding dedicated to mitigation. After Sandy, for every dollar that we spent to repair and restore, we spent an additional 34 to 85 cents to incorporate mitigation into these projects to improve resiliency, not just to build it back the way it was but to build it back stronger. This is a significant increase from past practices.    In one example, the New York City Health and Hospitals Corporation received more than $1.7 billion for permanent repairs in critical building systems at Bellevue, Coler, Coney Island, and Metropolitan Hospitals. Metropolitan strikes a chord with me because that is where, when I was a kid growing up, that is where they took me to get patched up after various and sundry accidents. In this case, the Hospital Corporation received $755 million of the total for hazard mitigation. That is more than one-third of the total funding that went to building back stronger and better. This additional resilience will reduce the impact of future storms on these facilities that serve more than 1 million people every year.    Another disaster program, the Hazard Mitigation Grant Program, or HMGP, which is one of our core programs, has spent nearly $1 billion it obligated in New York and New Jersey. This includes $45 million for this very hospital we are in today, the Staten Island University Hospital campus. Its funding, in coordination with funding from HUD, will elevate the utility systems in the main building to mitigate against future floods.    Thanks to SRIA, we are also implementing advanced assistance funding. These funds allow us to give out funds on the front end to develop smarter mitigation plans and obtain data to prioritize and develop projects for the remaining funds to be used even more appropriately.    In our other program area, the Individual Assistance Program, which is direct funding to families that are impacted, we provided over $1.4 billion in assistance to nearly 180,000 individuals and households after Sandy. We worked closely with the city and State partners to set up mobile teams that went door-to-door to make sure survivors were reached and taken care of. I am proud to say it was FDNY's management team that led the effort and coordinated it, and we were proud to be a part of it. This approach has been codified in the way FEMA does business now to better protect survivors.    In April 2013, FEMA created the Disaster Survivor Assistance Program, and these DSA teams have the training and the technology not just to wait for the call but to go out to the communities, to register, do case updates, and refer clients to other support.    One of the biggest challenges in recovery is coordinating across State, Federal, and local government to make sure that we maximize the impact. In Sandy we established the New York-New Jersey Federal Leadership Collaborative which provides an unparalleled format for Federal partners to conduct comprehensive, region-wide planning and identify opportunities to leverage dollars. This type of enhanced Federal recovery coordination continues to be implemented post-Sandy.    We have also seen as an example increased collaboration amongst the departments and agencies for unified Federal review. We are required to do environmental and historic preservation reviews whenever we are using Federal funds, and 11 departments and agencies have signed a Memorandum of Understanding to share that information so that each of our departments can work in a more streamlined way and reduce the review and duplication of effort.    Sandy was one of the largest, most complex disasters we have responded to in the past decade. With the associated challenges came the opportunity to develop innovations and efficiencies, and we will continue to work with Congress and other partners to build more resilient communities before and after disaster.    Thank you for the opportunity to testify. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Byrne.    The Chair now recognizes Ms. McFadden for 5 minutes.</t>
   </si>
   <si>
+    <t>McFadden</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McFadden. Chairman Donovan, Ranking Member Payne, and Members of the subcommittee, I am Marion Mollegen McFadden, deputy assistant secretary for grant programs. On behalf of Secretary Julian Castro, I appreciate the opportunity to testify before you today.    My testimony will cover 3 areas: The status of HUD's work to support long-term recovery from Hurricane Sandy; HUD's use of Federal disaster funds to increase resilience; and Federal and regional coordination after Sandy.    Sandy was one of the most devastating and costly National disasters in the Nation's history, causing tens of billions of dollars in damage, as you mentioned, Mr. Chairman, and directly affecting more than 17 million people from Puerto Rico to Maine. Since enactment of the Disaster Relief Appropriations Act in January 2013, HUD has moved aggressively to ensure that homeowners and businesses received assistance, and that critical infrastructure investments are made with an eye toward future storms.    The HUD Sandy recovery effort has resulted in new rules to better protect Federal recovery investment, requiring, for example, higher elevation of repaired homes located in areas prone to flooding, and requiring that larger infrastructure projects become more resilient. To date, Sandy grantees have worked together to assist more than 14,000 single-family households across the region, to fully repair their homes, or to help them find new housing. Billions of dollars of CDBG-DR assistance will also be invested in more resilient infrastructure.    Recovery, however, can never be fast enough. There remain areas where homeowners are still waiting to return to their homes, and HUD is working vigorously and continuously to find ways to accelerate the recovery. For example, for the first time HUD is allowing grantees to advance funds to homeowners to start reconstruction while withholding final payment until project completion. HUD has also used its authority to grant dozens of Sandy-specific waivers in order to meet local recovery needs, including allowing the development of protected infrastructure investment on private property.    Historically, disaster recovery has both done returning community assets to the location and condition that existed before the storm, but today extreme weather events demand a new focus on ensuring the resiliency of communities. HUD is investing new Federal resources in resiliency initiatives to serve as models for communities to prepare for the next disaster. Through the Rebuild By Design, or RBD initiative, HUD has allocated $930 million for flood mitigation projects to increase resilience throughout the Sandy-affected region. Through a competitive process, Rebuild By Design led to the selection of 7 projects across the region, including one particularly innovative project now underway here on Staten Island.    Through RBD, New York State is investing $60 million of CDBG-DR funds in the Living Breakwaters project in Tottenville to construct a system of breakwaters that will span the South Shore. In New Jersey, $203 million of Rebuild By Design investments are also helping the cities of Hoboken, Weehawken and Jersey City to develop a new urban water strategy, with $146 million of Federal transit funds, and providing another example of Federal and local coordination of resilient investment.    Similarly, to the National Disaster Resilience Competition, HUD has allocated nearly $1 billion of CDBG disaster recovery funds to support 13 State and local governments and their investment in new resilient infrastructure and housing, including $176 million for the city of New York to build new coastal flood protection for the neighborhoods of Southern Manhattan.    Beyond the city's investments, across the country, Shelby County, Tennessee will invest $60 million to create new greenways to reduce flood risk in future storms. Iowa will receive more than $96 million for watershed improvements and more resilient housing. California will invest more than $70 million for development of a biomass facility in response to wildfire damage. These and other initiatives growing out of the Sandy recovery have led to unprecedented new partnerships for HUD and other Federal, State, and local agencies. One of the most successful examples of those partnerships, as Mr. Byrne mentioned, is the Sandy Regional Infrastructure Resilience Coordination Group and Collaborative, led by FEMA.    [Alarm.]</t>
   </si>
   <si>
@@ -103,6 +124,9 @@
     <t xml:space="preserve">    Mr. Donovan. Thank you, Ms. McFadden.    The Chair now recognizes Mr. Zarrilli for 5 minutes.</t>
   </si>
   <si>
+    <t>Zarrilli</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Zarrilli. Good morning, Chair Donovan and Ranking Member Payne. My name is Daniel Zarrilli. I am the senior director for climate policy and programs at the New York City Mayor's Office. I would like to congratulate Chairman Donovan on his appointment as Chair of this committee, and on behalf of Mayor Bill de Blasio I want to thank the Members for this opportunity to speak about our efforts to build a more prepared and more resilient city.    Nearly 4 years ago Hurricane Sandy hit New York City with unprecedented force, tragically killing 44 New Yorkers and causing over $19 billion in damages and lost economic activity in the city. Here on Staten Island we saw some of the worst of Sandy. In the Staten Island University Hospital, where we are having this discussion today, it was nearly inundated, which is why we were proud to support the hospital with $28 million for a resiliency program, and why we are working with so many partners on critical resiliency investments on Staten Island and across the city.    Today I plan to briefly describe the city's resiliency program and how we are investing to ensure that our city will be ready to withstand and is much stronger from the impacts of climate change and other 21st Century threats. I also plan to offer suggestions for how Congress and our Federal partners can continue to support cities like New York with disaster recovery and preparing for the inevitable impacts that climate change will bring.    In the aftermath of Sandy, we put forth a comprehensive plan to rebuild the neighborhoods hardest hit by Sandy and to also prepare our city for the impacts of climate change. That plan, ``A Stronger, More Resilient New York,'' launched our over $20 billion resiliency program, improving our coastline, upgrading our buildings, rebuilding homes, improving our infrastructure, and generally improving our neighborhoods across the city.    In April 2015, Mayor de Blasio expanded and accelerated that work through OneNYC program. With OneNYC, we are putting in place a multi-layered resiliency plan, making our city safer, and we are holding ourselves accountable for these results by publishing an annual progress report of that work, the last of which was published in April 2016.    In so many ways, Federal support has been critical to these efforts. We have been blessed with the necessary funding, we have seen innovation, and we have witnessed challenges along the way. In the spirit of constructive feedback, I would like to offer several recommendations for how Congress and our Federal partners can better support cities as we continue to recover from Sandy and prepare for the future.    First, in response to Hurricane Sandy, the city and FEMA developed a hotel sheltering program and our Rapid Repairs Program, two innovative sheltering solutions tailored to an urban environment where traditional approaches like trailers are unworkable. Between November 2012 and September 2013, the hotel program provided emergency shelter in city hotels to over 1,300 displaced households. Rapid Repairs restored basic services to over 20,000 flooded homes and helping those households avoid long-term displacement. Both programs could be a model for responding to displacement in the future.    Second, Congress authorized an innovative FEMA public assistance pilot program called Section 428. To date, the city has been the single biggest user of this program, with nearly $5.9 billion worth of infrastructure investments underway. This more flexible and accountable program should be made a permanent feature of the Federal Government's disaster response and resiliency toolkit.    Third, FEMA's National Flood Insurance Program requires fundamental reform. Congress should act to expand mitigation options and funding, including increasing pre-disaster mitigation funding and offering partial credit on insurance premiums for partial mitigation measures; and No. 2, to ensure the affordability of flood insurance for those most in need of its coverage.    Fourth, the city is working toward a successful resolution to its appeal of FEMA's 2015 flood insurance rate maps, which we have demonstrated overstate the size of the city's 100-year flood plain due to inaccuracies in FEMA's underlying analysis. We urge FEMA to resolve the appeal and adopt accurate flood maps for the city.    Fifth, FEMA's Hazard Mitigation Grant Program has been a mechanism for the city to fund long-term and cost-effective resiliency projects, but to ensure that funds go where they are needed most, FEMA should consider issuing guidance to States to direct a fair share of HMGP dollars to local jurisdictions most affected by disaster.    Sixth, climate change is proving we need to improve Federal coordination to expedite implementation of key projects. For example, as you noted, although $32 million in USDA funds have been secured for bluebelts here on Staten Island, it is stalling because USDA and Army Corps can't agree on conservation easements. Benefit/cost ratios could be rationalized across agencies since each agency has its own methodology. These methodologies should be amended to support faster recovery and improved so as not to disadvantage low-income communities when comparing mitigation projects. Similarly, Congress should also urge Federal agencies to coordinate environmental reviews when multiple agencies contribute funding to a single project.    Finally, as we all know, fuel shortages plagued the city for weeks after Hurricane Sandy, and the lack of information sharing regarding the fuel supply made decision making difficult. Congress should urge the Department of Energy to establish data-sharing requirements for the industry to report critical facility-specific information.    To conclude, as our understanding of the impacts of climate change continues to improve, we are improving now to reduce risk and prepare for the future. This requires even greater partnership with Congress and the Federal Government to support local climate adaptation. We thank our Federal partners here today for their tireless work to support recovery and resiliency in New York City and urge them to continue to help us maintain our momentum as we build a more resilient city.    I would like to thank Chairman Donovan and Ranking Member Payne for their leadership as we work together to confront the challenges that climate change will bring to our Nation. Thank you very much.</t>
   </si>
   <si>
@@ -160,6 +184,9 @@
     <t xml:space="preserve">    Mr. Donovan. I would like to welcome our second panel to today's hearing and thank them for their participation.    Mr. Vincent Ignizio serves as the chief executive officer of Catholic Charities of Staten Island, a position he has held since July 2015. Prior to joining Catholic Charities, Mr. Ignizio served as the minority leader of the New York City Council and as a New York State Assemblyman representing southern Staten Island.    Welcome, Mr. Ignizio.</t>
   </si>
   <si>
+    <t>Ignizio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ignizio. Thank you, Chairman Donovan, esteemed Members of the subcommittee--oh, I'm sorry, pardon me. I am already rolling right into it.    [Laughter.]</t>
   </si>
   <si>
@@ -175,16 +202,25 @@
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Ignizio.    Mr. Gair.</t>
   </si>
   <si>
+    <t>Gair</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gair. Good morning, Mr. Chairman, Representative Payne. My name is Brad Gair. I am currently vice president of emergency management and enterprise resilience at NYU Langone Medical Center. After Hurricane Sandy, I was the director of Housing Recovery Operations in the Mayor's Office, and also coordinated the city's multi-billion-dollar FEMA recovery program. Previously I served as deputy commissioner with the New York City Office of Emergency Management and as a FEMA Federal coordinating officer, during which time I worked on numerous large-scale disasters, including serving as the Federal Recovery Officer in New York City after 9/11 and in Louisiana after Hurricane Katrina.    I am grateful for this opportunity to address the subcommittee today. Based upon more than 2 decades of experience in the business of disaster recovery and resilience, I offer the following four points for your consideration.    No. 1. We need a National dialog to agree upon recovery values. As citizens of a caring Nation, we have a natural inclination to want to help and assist our neighbors after the devastating losses that accompany large-scale disasters. Unfortunately, we have yet to agree at the National level upon how much we should do to aid disaster survivors. As a result, we have created a series of programs that, in the end, serve neither the taxpayers nor those families who may have lost everything. Every time a major disaster occurs in this country, the same unanswered questions plague recovery efforts: How much help is fair and reasonable? Should the taxpayers across the Nation share this burden? Who is responsible for getting families back into their homes? Why not require insurance? How much should we invest in making communities more disaster-resilient, and are there areas where we should not build back at all? The answers to these questions and many similar ones depend upon whom you ask.    FEMA's mantra is: ``We are not here to make you whole.'' Does that represent the collective wisdom of our Federal agencies and our Nation's lawmakers, or is it simply a rationale for inadequate programs that have filled a vacuum created by a lack of consensus, unclear guidance, and muddled authorities? Until we agree upon the basic parameters of post-disaster assistance grounded in consideration of these types of issues, even the best-conceived programs would fail to meet the expectations of the Government, the disaster survivors, and the American people.    No. 2. Existing recovery programs and resilience programs are poorly structured and badly implemented. The Federal Government often speaks of the sequence of delivery and disaster assistance as if there is a coherent plan behind it all when in reality it is a series of patchwork programs that, more than anything else, confuse, frustrate, and demoralize both those in need of aid and those trying to provide it. Our existing recovery programs do not work for the majority of families impacted by disasters, not individually and not collectively.    The National Flood Insurance Program is broken, possibly beyond repair. FEMA's cap on assistance to families at barely $30,000 makes little economic sense. Asking families to take on new debt through Small Business Administration loans is always a hard sell to those who have already lost so much. Charitable organizations trying to fill the gap without sufficient data on the needs and very little coordination with Government agencies end up wasting millions of donated dollars, and the HUD CBDG program, when authorized, is expected to be the magic bullet, and instead ends up being just another self-inflicted wound for the Federal Government.    From the Road Home program in post-Hurricane Katrina Louisiana, to Build-It-Back in post-Sandy New York City, HUD CBDG programs have generally been categorical failures in supporting timely and effective housing recovery. Once Congress authorizes the funds, the process for getting these funds from the Federal Treasury to those in need is unacceptably long, inexplicably convoluted, and inexcusably wasteful. It would be very easy to simply blame bumbling bureaucrats and greedy contractors, and no doubt we must all do better. But the root of the problem is that no State and no local government, regardless of its capability, can successfully create and set up in a few months what amounts to a multi-billion-dollar corporation with hundreds of employees and contractors, numerous store-front locations, a broad-based marketing campaign, and integrated customer service operations while tens of thousands of desperate customers must anxiously wait for help as their hope dwindles.    HUD touts the flexibility of the CDBG-DR, which does indeed give communities considerable latitude in program design, but I would trade much of this flexibility for a pre-approved, off-the-shelf program, complete with reasonable environmental waivers, a unified damage inspection process, unrestricted data sharing across the Government to minimize the paperwork burden on our customers, and a proven electronic case management system that could be quickly and efficiently operationalized. A properly-designed recovery program would be integrated with all other Federal programs to avoid the twin obstacles of excessive bureaucracy and unavoidable duplications of benefits that currently lead to extensive delays and universally bad results.    No. 3. Post-disaster coordination across the Federal agencies is insufficient. In the 10-block stretch along the East River in Manhattan in the area known as Hospital Row, FEMA, HUD, and the VA have individually funded hundreds of millions of dollars of resilience improvements without making any attempt whatsoever to coordinate these critical infrastructure projects at NYU Langone Medical Center, Bellevue Hospital, the VA Hospital and the Rebuild By Design East Coast Resiliency Project, formerly known as the Big U.    Similarly, right here on Staten Island, one Federal agency's funds are being used to buy out homes and convert the land to open space due to the extreme long-term flooding risk, while another Federal agency is designing a seawall that will ultimately provide substantially increased flood protection for this exact same property.    I am not saying that anything has been done wrong in these cases or any other countless similar cases, and at NYU Langone we are extremely grateful for the Federal assistance. The point is that maybe with better coordination, we could have done even more right. As a result, the Federal Government continues to miss opportunities to enhance flood protection, maximize the use of tax dollars, and ensure that investments in resilience are properly integrated.    The challenge is that no single Federal agency has the appropriate authority to directly coordinate these recovery programs in the way that FEMA does during the disaster response process. The second version of the National Disaster Recovery Framework was just issued last month and still does not include any formal mechanisms empowering FEMA or any other Federal agency to oversee and manage across the Federal recovery programs. Until this occurs, each agency will continue to work in isolation, and hundreds of millions of dollars in missed opportunities to leverage Federal funding will continue to accrue.    Fourth and last. We need a comprehensive National resilience strategy. FEMA has 4 different hazard mitigation programs and has devoted billions of dollars to resilience post-Hurricane Sandy. HUD does encourage resilience in its CDBG programs by State and local governments, and separately dedicated $1 billion to the Rebuild By Design resilience competition. The Federal Transit Administration awarded $3 billion of resilience grants to local and State governments, and Army Corps of Engineers received authorization for $4 billion of Hurricane Sandy-related projects.    While this commitment to resilience is commendable, each agency is left to establish its own ideas of what resilience means and how best to achieve it. As a result, there is no coherent overarching National resilience strategy in place to guide our investments.    In the months after Hurricane Sandy, New York City devoted significant time and resources to devising the Special Initiative for Rebuilding and Resiliency to guide recovery based upon locally-derived resilience values. In a completely separate initiative at the Federal level, 23 agencies comprising the Hurricane Sandy Rebuilding Task Force developed a Hurricane Sandy Rebuilding Strategy, including 69 recommendations, many of which were focused on resilience but few of which have been implemented. These initiatives are a good start, but a few months of hard work in the immediate aftermath of a single major hurricane should not be expected to set long-term National policy.    We need the Federal Government, in cooperation with State, Tribal, and local governments, and the private sector, to develop a comprehensive National resilience strategy, establishing clear and measurable resilience objectives, and taking into account the latest scientific evidence, the values that communities hold dear, and everything in between. Furthermore, this Federally-driven resilience strategy must include an implementation plan and be tied directly to Federal funding assistance, or else it will be summarily ignored.    We are all here today for the exact same reason that many similar Congressional committees and subcommittees have been convened in the aftermath of virtually every major disaster over the past several decades: The system is broken, everyone is mad, and billions of dollars continue to be wasted. The Post-Hurricane Katrina Reform Act reformed next to nothing, and the Hurricane Sandy Improvement Act improved far too little. Now let's try something different. Let's start over, decide who and how much we want to help, establish a comprehensive policy for disaster resilience and recovery, devise an implementation strategy, build an integrated set of programs that get the job done, and empower our hard-working public servants to lead genuine, sustainable, cost-effective efforts that restore communities and support families in their time of need.    Thank you very much, and I would be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Gair.    The Chair recognizes Ms. Moravick for 5 minutes.</t>
   </si>
   <si>
+    <t>Moravick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Moravick. Hi. I want to thank you both for allowing me to be here today.    Southside Hospital is a 341-bed tertiary facility on the South Shore of Long Island in western Suffolk. We are a relatively new tertiary facility. We provide cardiac surgery care, cardiac care. We are a level-2 ACS, the American College of Surgeons, trauma center.    On October 29, as we all know, 2012, we were really securing our borders and our entire campus for Hurricane Sandy. But we didn't start on the 29. We started 3 days earlier.    I am actually a nurse and a nurse practitioner, and I believe in primary prevention as the treatment of choice, so we went into gear. We rallied the staff. We told them, bring your clothes, you are staying here for a good 2 to 3 days, and we are not leaving, even though they too may have had homes that would be destroyed during the hurricane. We went into action. We secured our core business. We have low-lying electric gear. We have our switch gear, and our generators are on the ground floor. We had purchased doors which I call the dam doors, but they are doors that dam the water out of that area. I am very visual, I have to see everything. So during the hurricane, we had administration there 24/7, all surgeons in-house, all cardiac surgeons, trauma, emergency room staff, and we were prepared for anything. We knew that if any other hospital in the community went down, we would have to be open.    Our emergency room is there for our patients. We serve a very diverse community, which is really extremely important, and we are about $900 million of economic impact to our community.    So our doors were open, and we were not shutting them at any cost. We identified those high-acuity patients that were requiring intubation or being on a respirator, and we put them in ambulances and transported them to higher ground, a tertiary facility in our health system. We had constant calls every 4 hours, every 2 hours at times during the height of the storm. But as an executive director of a hospital, I never thought I would have to know high tide and moon phase, which hit simultaneously on the South Shore of Long Island.    We are within 1,000 feet of tributaries that empty into the Great South Bay, and it was very scary seeing the water rise up to the doors of the hospital, sandbags. We really had to put a lot of people outside during this event to be sure that we had pumps going and our generators were working.    Power was lost in the community, and what people do not recognize is the hospital is a safe haven for everyone. We had those worried well older patients, moms with their babies who had no light who would come into the hospital. We had a bar of oxygen across the emergency room with people breathing in our emergency room because they could and they needed to.    So it was really a difficult time. The roads were shut down at one point in time. But I believe we persevered. We were prepared. We were ready to rumble. Whatever we could mitigate, we did at that time. We were backing up other institutions who were flooded and needed help. We were available for any other institution. We received calls from the Town of Islip, and we worked collaboratively with them.    But I do believe that hospitals are an integral part of our community, and we are there in times of need. Patients who are well, patients who are sick, we are the place to go. Our emergency room was jam-packed with people who just were scared and didn't want to be home in their homes.    So again, I think preparedness for hospitals is key, and we are the place where people will come during catastrophic events.    Thank you for letting me speak.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you.    The Chair recognizes Ms. Higgs for 5 minutes.</t>
+  </si>
+  <si>
+    <t>Higgs</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Higgs. Thank you very much, Chairman Donovan and Ranking Member Payne, for convening this hearing on the importance of preparedness and resiliency and inviting me to testify on this critical topic.    New Jersey Voluntary Organizations Active in Disaster, or NJVOAD's mission is to bring together New Jersey organizations in disaster response and recovery in order to offer more effective services to people and communities affected by disaster. Our success derives from strong relationships built on the foundation of the four C's, which are cooperation, communication, coordination, and collaboration.    It is my belief that these same foundational building blocks have contributed to many successful partnerships, projects, and outcomes in the aftermath of Sandy. Conversely, when these key ingredients were not present, programs struggled and/or failed.    There have been many lessons learned throughout Sandy recovery, but my testimony today will focus on 4 areas.    First, the need to build partnerships and relationships at the local, county, and regional level before disaster strikes.    Second, the need for early education and outreach to impacted households.    Third, the importance of building partnerships with the philanthropic community and advocating for funding allocation decisions which sustain true long-term recovery efforts.    Fourth, the need for coordination and continuity in the development and implementation of State-managed programs utilizing community development and social service block grant funds.    With the support of the Corporation for National Community Service, grants utilized VISTAs, or Volunteers in Service to America, to build capacity. NJVOAD has been able to establish a VOAD presence in every county in New Jersey, and this is pretty remarkable because there were only 6 in place before Sandy struck. We saw the benefit of this in Bergen County, where the VOAD had a strong network of area non-profits and a solid relationship with the Office of Emergency Management prior to Sandy. As a result, they were able to quickly mobilize non-profit resources for response and recovery efforts in impacted communities.    Sadly, Hudson County, Essex County, and Union, and many of the most impacted counties to the south of Bergen, did not have a VOAD in place prior to Sandy, and as a result they needed a tremendous amount of support in identifying partners and resources, which delayed the speed and efficiency of service delivery to impacted individuals.    NJVOAD worked in these and all 21 counties throughout the State to identify non-profit and governmental partners to join the VOAD to coordinate outreach events, to identify leadership to ensure regular meetings and training, and to organize individual structures that meet the unique needs of each of these communities.    Other States are looking at NJVOAD's program as a model for resiliency, and we are working with our Corporation for National Community Service and our FEMA Region 2 partners to replicate these efforts through a regional pilot program.    Almost 4 years post-Sandy, the need for recovery support far outweighs the remaining non-profit resources. The remaining cases consist primarily of low-income households with limited means for recovery, or moderate-income households that encountered several challenges navigating the complicated recovery road. Many of these households began recovery work before documenting the damage, and they have not been able to provide sufficient proof of that damage to receive the funds they should be entitled to through the National Flood Insurance Program. Others signed contracts they could not afford or hired disreputable contractors to complete recovery work.    NJVOAD is developing educational resources to be utilized in future disasters so that impacted homeowners can make informed decisions before beginning their recovery.    NJVOAD is also working closely with the philanthropic community to identify collaborative solutions which will provide for a more effective and sustainable funding stream for future disasters. Education extending to our Government partners and the public is critical to ensure better understanding of the need for funding to sustain recovery efforts long term.    The majority of money is donated in the days and weeks following a major disaster, with the expectation and sometimes the mandate that these funds get out immediately, but that is not when donated dollars are most needed. NJVOAD hopes to establish a State-wide advisory group with representatives from the philanthropic, Government, and non-profit communities to provide guidance and expertise specific to the disaster at hand.    The struggle to navigate the State recovery programs remains one of the biggest challenges faced by New Jersey Sandy survivors and non-profit organizations. For instance, RREM, which is New Jersey's Rebuild program, was developed without consideration of funding for rental assistance, which can and should be covered by block grants. Millions of non-profit donated dollars were expended on rental assistance so that Sandy survivors could maintain mortgages on uninhabitable homes. Attempts to advocate with State and Federal agencies to address this and other deficiencies were not productive, as each held the other accountable for roadblocks to progress.    NJVOAD has forged relationships with the New Jersey Division of Consumer Affairs, and we have seen small concessions, but much improvement is needed in how these programs are designed and integrated into the overall disaster recovery framework. A stronger citizen action plan should be mandated which requires input and involvement by disaster survivors and recovery entities during the formation of any proposed disaster recovery action plan. Additionally, better integration and staffing of the joint field offices to include State decision makers responsible for the development and implementation of recovery programs could go a long way in future coordination and integration of Governmental programs.    NJVOAD is committed to working with our public- and private-sector partners to be part of the solution in implementing lessons learned from Sandy and preparing our communities to weather whatever storms might lie ahead.    Thank you again for the opportunity to testify, and I look forward to answering any questions.</t>
@@ -659,7 +695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +703,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,2045 +725,2403 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
       <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
       <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
       <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
       <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
       <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>56</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
       <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
       <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>18</v>
+      </c>
       <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s">
+        <v>18</v>
+      </c>
       <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>65</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
       <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>68</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>98</v>
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg25263.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25263.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412672</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Donovan</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
   </si>
   <si>
     <t>412506</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Payne</t>
@@ -695,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,7 +712,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,2400 +737,2588 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>65</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>68</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>68</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>62</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>65</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>68</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>56</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>59</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>56</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>68</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>68</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>71</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>65</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>56</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>68</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="s">
-        <v>68</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>71</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" t="s">
-        <v>56</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>59</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" t="s">
-        <v>62</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>65</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s">
-        <v>62</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>65</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s">
-        <v>65</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>68</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>68</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>71</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>68</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>71</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>110</v>
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
